--- a/questionnaires/2-ipip-100_item-NEO5-20/ipip-100_items_NEO5-20.xlsx
+++ b/questionnaires/2-ipip-100_item-NEO5-20/ipip-100_items_NEO5-20.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="IPIP 100 Item NEO5_20 Questionnaire" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Score Values for .csv" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
   <si>
     <t xml:space="preserve">IPIP 100 Item Big Five Open Source Questionnaire</t>
   </si>
@@ -437,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use right-click → Paste Special → Paste Special… to paste just the score here, then use File → Save As… to save that as a .csv file</t>
   </si>
 </sst>
 </file>
@@ -571,7 +575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -611,6 +615,10 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -850,7 +858,7 @@
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -861,7 +869,7 @@
       <c r="H5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -902,7 +910,7 @@
       <c r="H6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -943,7 +951,7 @@
       <c r="H7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -984,7 +992,7 @@
       <c r="H8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J8" s="0" t="n">
@@ -1025,7 +1033,7 @@
       <c r="H9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -1066,7 +1074,7 @@
       <c r="H10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="n">
+      <c r="I10" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -1107,7 +1115,7 @@
       <c r="H11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -1148,7 +1156,7 @@
       <c r="H12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="10" t="n">
+      <c r="I12" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -1189,7 +1197,7 @@
       <c r="H13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J13" s="0" t="n">
@@ -1230,7 +1238,7 @@
       <c r="H14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J14" s="0" t="n">
@@ -1271,7 +1279,7 @@
       <c r="H15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J15" s="0" t="n">
@@ -1312,7 +1320,7 @@
       <c r="H16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J16" s="0" t="n">
@@ -1353,7 +1361,7 @@
       <c r="H17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J17" s="0" t="n">
@@ -1394,7 +1402,7 @@
       <c r="H18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="I18" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J18" s="0" t="n">
@@ -1435,7 +1443,7 @@
       <c r="H19" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="10" t="n">
+      <c r="I19" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J19" s="0" t="n">
@@ -1476,7 +1484,7 @@
       <c r="H20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="10" t="n">
+      <c r="I20" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J20" s="0" t="n">
@@ -1517,7 +1525,7 @@
       <c r="H21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="10" t="n">
+      <c r="I21" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J21" s="0" t="n">
@@ -1558,7 +1566,7 @@
       <c r="H22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="10" t="n">
+      <c r="I22" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J22" s="0" t="n">
@@ -1599,7 +1607,7 @@
       <c r="H23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J23" s="0" t="n">
@@ -1640,7 +1648,7 @@
       <c r="H24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J24" s="0" t="n">
@@ -1681,7 +1689,7 @@
       <c r="H25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="10" t="n">
+      <c r="I25" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J25" s="0" t="n">
@@ -1722,7 +1730,7 @@
       <c r="H26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J26" s="0" t="n">
@@ -1763,7 +1771,7 @@
       <c r="H27" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="10" t="n">
+      <c r="I27" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J27" s="0" t="n">
@@ -1804,7 +1812,7 @@
       <c r="H28" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="10" t="n">
+      <c r="I28" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J28" s="0" t="n">
@@ -1845,7 +1853,7 @@
       <c r="H29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="10" t="n">
+      <c r="I29" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J29" s="0" t="n">
@@ -1886,7 +1894,7 @@
       <c r="H30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="10" t="n">
+      <c r="I30" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J30" s="0" t="n">
@@ -1927,7 +1935,7 @@
       <c r="H31" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="10" t="n">
+      <c r="I31" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J31" s="0" t="n">
@@ -1968,7 +1976,7 @@
       <c r="H32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="10" t="n">
+      <c r="I32" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J32" s="0" t="n">
@@ -2009,7 +2017,7 @@
       <c r="H33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="10" t="n">
+      <c r="I33" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J33" s="0" t="n">
@@ -2050,7 +2058,7 @@
       <c r="H34" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="10" t="n">
+      <c r="I34" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J34" s="0" t="n">
@@ -2091,7 +2099,7 @@
       <c r="H35" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="10" t="n">
+      <c r="I35" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J35" s="0" t="n">
@@ -2132,7 +2140,7 @@
       <c r="H36" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="10" t="n">
+      <c r="I36" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J36" s="0" t="n">
@@ -2173,7 +2181,7 @@
       <c r="H37" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="10" t="n">
+      <c r="I37" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J37" s="0" t="n">
@@ -2214,7 +2222,7 @@
       <c r="H38" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="10" t="n">
+      <c r="I38" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J38" s="0" t="n">
@@ -2255,7 +2263,7 @@
       <c r="H39" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="10" t="n">
+      <c r="I39" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J39" s="0" t="n">
@@ -2296,7 +2304,7 @@
       <c r="H40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="10" t="n">
+      <c r="I40" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J40" s="0" t="n">
@@ -2337,7 +2345,7 @@
       <c r="H41" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="10" t="n">
+      <c r="I41" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J41" s="0" t="n">
@@ -2378,7 +2386,7 @@
       <c r="H42" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="10" t="n">
+      <c r="I42" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J42" s="0" t="n">
@@ -2419,7 +2427,7 @@
       <c r="H43" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="10" t="n">
+      <c r="I43" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J43" s="0" t="n">
@@ -2460,7 +2468,7 @@
       <c r="H44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="10" t="n">
+      <c r="I44" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J44" s="0" t="n">
@@ -2501,7 +2509,7 @@
       <c r="H45" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="10" t="n">
+      <c r="I45" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J45" s="0" t="n">
@@ -2542,7 +2550,7 @@
       <c r="H46" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="10" t="n">
+      <c r="I46" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J46" s="0" t="n">
@@ -2583,7 +2591,7 @@
       <c r="H47" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="10" t="n">
+      <c r="I47" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J47" s="0" t="n">
@@ -2624,7 +2632,7 @@
       <c r="H48" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="10" t="n">
+      <c r="I48" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J48" s="0" t="n">
@@ -2665,7 +2673,7 @@
       <c r="H49" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="10" t="n">
+      <c r="I49" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J49" s="0" t="n">
@@ -2706,7 +2714,7 @@
       <c r="H50" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="10" t="n">
+      <c r="I50" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J50" s="0" t="n">
@@ -2747,7 +2755,7 @@
       <c r="H51" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="10" t="n">
+      <c r="I51" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J51" s="0" t="n">
@@ -2788,7 +2796,7 @@
       <c r="H52" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="10" t="n">
+      <c r="I52" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J52" s="0" t="n">
@@ -2829,7 +2837,7 @@
       <c r="H53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="10" t="n">
+      <c r="I53" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J53" s="0" t="n">
@@ -2870,7 +2878,7 @@
       <c r="H54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="10" t="n">
+      <c r="I54" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J54" s="0" t="n">
@@ -2911,7 +2919,7 @@
       <c r="H55" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="10" t="n">
+      <c r="I55" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J55" s="0" t="n">
@@ -2952,7 +2960,7 @@
       <c r="H56" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="10" t="n">
+      <c r="I56" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J56" s="0" t="n">
@@ -2993,7 +3001,7 @@
       <c r="H57" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="10" t="n">
+      <c r="I57" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J57" s="0" t="n">
@@ -3034,7 +3042,7 @@
       <c r="H58" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="10" t="n">
+      <c r="I58" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J58" s="0" t="n">
@@ -3075,7 +3083,7 @@
       <c r="H59" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="10" t="n">
+      <c r="I59" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J59" s="0" t="n">
@@ -3116,7 +3124,7 @@
       <c r="H60" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="10" t="n">
+      <c r="I60" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J60" s="0" t="n">
@@ -3157,7 +3165,7 @@
       <c r="H61" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="10" t="n">
+      <c r="I61" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J61" s="0" t="n">
@@ -3198,7 +3206,7 @@
       <c r="H62" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="10" t="n">
+      <c r="I62" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J62" s="0" t="n">
@@ -3239,7 +3247,7 @@
       <c r="H63" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="10" t="n">
+      <c r="I63" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J63" s="0" t="n">
@@ -3280,7 +3288,7 @@
       <c r="H64" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="10" t="n">
+      <c r="I64" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J64" s="0" t="n">
@@ -3321,7 +3329,7 @@
       <c r="H65" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="10" t="n">
+      <c r="I65" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J65" s="0" t="n">
@@ -3362,7 +3370,7 @@
       <c r="H66" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="10" t="n">
+      <c r="I66" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J66" s="0" t="n">
@@ -3403,7 +3411,7 @@
       <c r="H67" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="10" t="n">
+      <c r="I67" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J67" s="0" t="n">
@@ -3444,7 +3452,7 @@
       <c r="H68" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="10" t="n">
+      <c r="I68" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J68" s="0" t="n">
@@ -3485,7 +3493,7 @@
       <c r="H69" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="10" t="n">
+      <c r="I69" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J69" s="0" t="n">
@@ -3526,7 +3534,7 @@
       <c r="H70" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="10" t="n">
+      <c r="I70" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J70" s="0" t="n">
@@ -3567,7 +3575,7 @@
       <c r="H71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="10" t="n">
+      <c r="I71" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J71" s="0" t="n">
@@ -3608,7 +3616,7 @@
       <c r="H72" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="10" t="n">
+      <c r="I72" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J72" s="0" t="n">
@@ -3649,7 +3657,7 @@
       <c r="H73" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I73" s="10" t="n">
+      <c r="I73" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J73" s="0" t="n">
@@ -3690,7 +3698,7 @@
       <c r="H74" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="10" t="n">
+      <c r="I74" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J74" s="0" t="n">
@@ -3731,7 +3739,7 @@
       <c r="H75" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="10" t="n">
+      <c r="I75" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J75" s="0" t="n">
@@ -3772,7 +3780,7 @@
       <c r="H76" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="10" t="n">
+      <c r="I76" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J76" s="0" t="n">
@@ -3813,7 +3821,7 @@
       <c r="H77" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="10" t="n">
+      <c r="I77" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J77" s="0" t="n">
@@ -3854,7 +3862,7 @@
       <c r="H78" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="10" t="n">
+      <c r="I78" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J78" s="0" t="n">
@@ -3895,7 +3903,7 @@
       <c r="H79" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="10" t="n">
+      <c r="I79" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J79" s="0" t="n">
@@ -3936,7 +3944,7 @@
       <c r="H80" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="10" t="n">
+      <c r="I80" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J80" s="0" t="n">
@@ -3977,7 +3985,7 @@
       <c r="H81" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="10" t="n">
+      <c r="I81" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J81" s="0" t="n">
@@ -4018,7 +4026,7 @@
       <c r="H82" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="10" t="n">
+      <c r="I82" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J82" s="0" t="n">
@@ -4059,7 +4067,7 @@
       <c r="H83" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I83" s="10" t="n">
+      <c r="I83" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J83" s="0" t="n">
@@ -4100,7 +4108,7 @@
       <c r="H84" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="10" t="n">
+      <c r="I84" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J84" s="0" t="n">
@@ -4141,7 +4149,7 @@
       <c r="H85" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I85" s="10" t="n">
+      <c r="I85" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J85" s="0" t="n">
@@ -4182,7 +4190,7 @@
       <c r="H86" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I86" s="10" t="n">
+      <c r="I86" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J86" s="0" t="n">
@@ -4223,7 +4231,7 @@
       <c r="H87" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="10" t="n">
+      <c r="I87" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J87" s="0" t="n">
@@ -4264,7 +4272,7 @@
       <c r="H88" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="10" t="n">
+      <c r="I88" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J88" s="0" t="n">
@@ -4305,7 +4313,7 @@
       <c r="H89" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="10" t="n">
+      <c r="I89" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J89" s="0" t="n">
@@ -4346,7 +4354,7 @@
       <c r="H90" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="10" t="n">
+      <c r="I90" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J90" s="0" t="n">
@@ -4387,7 +4395,7 @@
       <c r="H91" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="10" t="n">
+      <c r="I91" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J91" s="0" t="n">
@@ -4428,7 +4436,7 @@
       <c r="H92" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I92" s="10" t="n">
+      <c r="I92" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J92" s="0" t="n">
@@ -4469,7 +4477,7 @@
       <c r="H93" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="10" t="n">
+      <c r="I93" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J93" s="0" t="n">
@@ -4510,7 +4518,7 @@
       <c r="H94" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="10" t="n">
+      <c r="I94" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J94" s="0" t="n">
@@ -4551,7 +4559,7 @@
       <c r="H95" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="10" t="n">
+      <c r="I95" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J95" s="0" t="n">
@@ -4592,7 +4600,7 @@
       <c r="H96" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I96" s="10" t="n">
+      <c r="I96" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J96" s="0" t="n">
@@ -4633,7 +4641,7 @@
       <c r="H97" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I97" s="10" t="n">
+      <c r="I97" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J97" s="0" t="n">
@@ -4674,7 +4682,7 @@
       <c r="H98" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="10" t="n">
+      <c r="I98" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J98" s="0" t="n">
@@ -4715,7 +4723,7 @@
       <c r="H99" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I99" s="10" t="n">
+      <c r="I99" s="11" t="n">
         <v>0.9</v>
       </c>
       <c r="J99" s="0" t="n">
@@ -4756,7 +4764,7 @@
       <c r="H100" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="10" t="n">
+      <c r="I100" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J100" s="0" t="n">
@@ -4797,7 +4805,7 @@
       <c r="H101" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I101" s="10" t="n">
+      <c r="I101" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J101" s="0" t="n">
@@ -4838,7 +4846,7 @@
       <c r="H102" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="10" t="n">
+      <c r="I102" s="11" t="n">
         <v>0.91</v>
       </c>
       <c r="J102" s="0" t="n">
@@ -4879,7 +4887,7 @@
       <c r="H103" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I103" s="10" t="n">
+      <c r="I103" s="11" t="n">
         <v>0.85</v>
       </c>
       <c r="J103" s="0" t="n">
@@ -4920,7 +4928,7 @@
       <c r="H104" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="10" t="n">
+      <c r="I104" s="11" t="n">
         <v>0.89</v>
       </c>
       <c r="J104" s="0" t="n">
@@ -4947,28 +4955,28 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
       <c r="G105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="H105" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
-      <c r="P105" s="11"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2"/>
@@ -4981,7 +4989,7 @@
       <c r="O106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B107" s="2"/>
@@ -4994,7 +5002,7 @@
       <c r="O107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -5025,8 +5033,8 @@
       <c r="O110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5035,16 +5043,16 @@
       <c r="O111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="15" t="s">
         <v>125</v>
       </c>
       <c r="E112" s="2"/>
@@ -5054,7 +5062,7 @@
       <c r="O112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B113" s="2" t="n">
@@ -5062,11 +5070,11 @@
         <v>0</v>
       </c>
       <c r="C113" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B113,10)</f>
-        <v>-10</v>
-      </c>
-      <c r="D113" s="17" t="str">
-        <f aca="false">IF(C113&lt;=20,"Very Low",IF(C113&lt;=40,"Low",IF(C113&lt;60,"Average",IF(C113&lt;80,"High","Very High"))))</f>
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B113,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D113" s="18" t="str">
+        <f aca="false">IF(C113&lt;=20,"Very Low",IF(C113&lt;=36,"Low",IF(C113&lt;=46,"A Little Low",IF(C113&lt;=53,"Average",IF(C113&lt;=63,"A Little High",IF(C113&lt;=79,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
       <c r="E113" s="2"/>
@@ -5076,7 +5084,7 @@
       <c r="O113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B114" s="2" t="n">
@@ -5084,11 +5092,11 @@
         <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B114,10)</f>
-        <v>-10</v>
-      </c>
-      <c r="D114" s="17" t="str">
-        <f aca="false">IF(C114&lt;=20,"Very Low",IF(C114&lt;=40,"Low",IF(C114&lt;60,"Average",IF(C114&lt;80,"High","Very High"))))</f>
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B114,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D114" s="18" t="str">
+        <f aca="false">IF(C114&lt;=20,"Very Low",IF(C114&lt;=36,"Low",IF(C114&lt;=46,"A Little Low",IF(C114&lt;=53,"Average",IF(C114&lt;=63,"A Little High",IF(C114&lt;=79,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
       <c r="E114" s="2"/>
@@ -5098,7 +5106,7 @@
       <c r="O114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B115" s="2" t="n">
@@ -5106,11 +5114,11 @@
         <v>0</v>
       </c>
       <c r="C115" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B115,10)</f>
-        <v>-10</v>
-      </c>
-      <c r="D115" s="17" t="str">
-        <f aca="false">IF(C115&lt;=20,"Very Low",IF(C115&lt;=40,"Low",IF(C115&lt;60,"Average",IF(C115&lt;80,"High","Very High"))))</f>
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B115,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D115" s="18" t="str">
+        <f aca="false">IF(C115&lt;=20,"Very Low",IF(C115&lt;=36,"Low",IF(C115&lt;=46,"A Little Low",IF(C115&lt;=53,"Average",IF(C115&lt;=63,"A Little High",IF(C115&lt;=79,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
       <c r="E115" s="2"/>
@@ -5120,7 +5128,7 @@
       <c r="O115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B116" s="2" t="n">
@@ -5128,11 +5136,11 @@
         <v>0</v>
       </c>
       <c r="C116" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B116,10)</f>
-        <v>-10</v>
-      </c>
-      <c r="D116" s="17" t="str">
-        <f aca="false">IF(C116&lt;=20,"Very Low",IF(C116&lt;=40,"Low",IF(C116&lt;60,"Average",IF(C116&lt;80,"High","Very High"))))</f>
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B116,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D116" s="18" t="str">
+        <f aca="false">IF(C116&lt;=20,"Very Low",IF(C116&lt;=36,"Low",IF(C116&lt;=46,"A Little Low",IF(C116&lt;=53,"Average",IF(C116&lt;=63,"A Little High",IF(C116&lt;=79,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
       <c r="E116" s="2"/>
@@ -5142,7 +5150,7 @@
       <c r="O116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="2" t="n">
@@ -5150,11 +5158,11 @@
         <v>0</v>
       </c>
       <c r="C117" s="2" t="n">
-        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B117,10)</f>
-        <v>-10</v>
-      </c>
-      <c r="D117" s="17" t="str">
-        <f aca="false">IF(C117&lt;=20,"Very Low",IF(C117&lt;=40,"Low",IF(C117&lt;60,"Average",IF(C117&lt;80,"High","Very High"))))</f>
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B117,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D117" s="18" t="str">
+        <f aca="false">IF(C117&lt;=20,"Very Low",IF(C117&lt;=36,"Low",IF(C117&lt;=46,"A Little Low",IF(C117&lt;=53,"Average",IF(C117&lt;=63,"A Little High",IF(C117&lt;=79,"High","Very High"))))))</f>
         <v>Very Low</v>
       </c>
       <c r="E117" s="2"/>
@@ -5171,14 +5179,14 @@
       <c r="O118" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -5821,4 +5829,33 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/questionnaires/2-ipip-100_item-NEO5-20/ipip-100_items_NEO5-20.xlsx
+++ b/questionnaires/2-ipip-100_item-NEO5-20/ipip-100_items_NEO5-20.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="130">
   <si>
     <t xml:space="preserve">IPIP 100 Item Big Five Open Source Questionnaire</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">-----------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">----------------------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
     <r>
@@ -413,6 +410,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Results appear below, starting on row 201</t>
+  </si>
+  <si>
     <t xml:space="preserve">Score:</t>
   </si>
   <si>
@@ -425,19 +425,13 @@
     <t xml:space="preserve">Meaning</t>
   </si>
   <si>
-    <t xml:space="preserve">The sheet uses these values to validate the input:</t>
+    <t xml:space="preserve">Used to validate the input:</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Use right-click → Paste Special → Paste Special… to paste just the score here, then use File → Save As… to save that as a .csv file</t>
@@ -452,7 +446,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -520,6 +514,13 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -527,6 +528,12 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -575,7 +582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,8 +643,20 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -650,10 +669,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -733,7 +748,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:AP226"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -758,6 +773,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,31 +850,36 @@
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="AH4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="AI4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="AK4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="AL4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="AM4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="AP4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -866,32 +895,37 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="AH5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="AI5" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B5),K5,IF(ISTEXT(C5),L5,IF(ISTEXT(D5),M5,IF(ISTEXT(E5),N5,IF(ISTEXT(F5),O5,0)))))</f>
+      <c r="AJ5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B5),AK5,IF(ISTEXT(C5),AL5,IF(ISTEXT(D5),AM5,IF(ISTEXT(E5),AN5,IF(ISTEXT(F5),AO5,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -907,32 +941,37 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="AH6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="AI6" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B6),K6,IF(ISTEXT(C6),L6,IF(ISTEXT(D6),M6,IF(ISTEXT(E6),N6,IF(ISTEXT(F6),O6,0)))))</f>
+      <c r="AJ6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B6),AK6,IF(ISTEXT(C6),AL6,IF(ISTEXT(D6),AM6,IF(ISTEXT(E6),AN6,IF(ISTEXT(F6),AO6,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -948,32 +987,37 @@
       <c r="G7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="AH7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="AI7" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B7),K7,IF(ISTEXT(C7),L7,IF(ISTEXT(D7),M7,IF(ISTEXT(E7),N7,IF(ISTEXT(F7),O7,0)))))</f>
+      <c r="AK7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B7),AK7,IF(ISTEXT(C7),AL7,IF(ISTEXT(D7),AM7,IF(ISTEXT(E7),AN7,IF(ISTEXT(F7),AO7,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -989,32 +1033,37 @@
       <c r="G8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="AH8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="AI8" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="AJ8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B8),K8,IF(ISTEXT(C8),L8,IF(ISTEXT(D8),M8,IF(ISTEXT(E8),N8,IF(ISTEXT(F8),O8,0)))))</f>
+      <c r="AK8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B8),AK8,IF(ISTEXT(C8),AL8,IF(ISTEXT(D8),AM8,IF(ISTEXT(E8),AN8,IF(ISTEXT(F8),AO8,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1030,32 +1079,37 @@
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="AH9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="AI9" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B9),K9,IF(ISTEXT(C9),L9,IF(ISTEXT(D9),M9,IF(ISTEXT(E9),N9,IF(ISTEXT(F9),O9,0)))))</f>
+      <c r="AK9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B9),AK9,IF(ISTEXT(C9),AL9,IF(ISTEXT(D9),AM9,IF(ISTEXT(E9),AN9,IF(ISTEXT(F9),AO9,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1071,32 +1125,37 @@
       <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="AH10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="AI10" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B10),K10,IF(ISTEXT(C10),L10,IF(ISTEXT(D10),M10,IF(ISTEXT(E10),N10,IF(ISTEXT(F10),O10,0)))))</f>
+      <c r="AK10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B10),AK10,IF(ISTEXT(C10),AL10,IF(ISTEXT(D10),AM10,IF(ISTEXT(E10),AN10,IF(ISTEXT(F10),AO10,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1112,32 +1171,37 @@
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="AH11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="AI11" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B11),K11,IF(ISTEXT(C11),L11,IF(ISTEXT(D11),M11,IF(ISTEXT(E11),N11,IF(ISTEXT(F11),O11,0)))))</f>
+      <c r="AJ11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B11),AK11,IF(ISTEXT(C11),AL11,IF(ISTEXT(D11),AM11,IF(ISTEXT(E11),AN11,IF(ISTEXT(F11),AO11,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1153,32 +1217,37 @@
       <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="AH12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="AI12" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B12),K12,IF(ISTEXT(C12),L12,IF(ISTEXT(D12),M12,IF(ISTEXT(E12),N12,IF(ISTEXT(F12),O12,0)))))</f>
+      <c r="AK12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B12),AK12,IF(ISTEXT(C12),AL12,IF(ISTEXT(D12),AM12,IF(ISTEXT(E12),AN12,IF(ISTEXT(F12),AO12,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,32 +1263,37 @@
       <c r="G13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="AH13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="AI13" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B13),K13,IF(ISTEXT(C13),L13,IF(ISTEXT(D13),M13,IF(ISTEXT(E13),N13,IF(ISTEXT(F13),O13,0)))))</f>
+      <c r="AJ13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP13" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B13),AK13,IF(ISTEXT(C13),AL13,IF(ISTEXT(D13),AM13,IF(ISTEXT(E13),AN13,IF(ISTEXT(F13),AO13,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1235,32 +1309,37 @@
       <c r="G14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="AH14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="AI14" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B14),K14,IF(ISTEXT(C14),L14,IF(ISTEXT(D14),M14,IF(ISTEXT(E14),N14,IF(ISTEXT(F14),O14,0)))))</f>
+      <c r="AK14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B14),AK14,IF(ISTEXT(C14),AL14,IF(ISTEXT(D14),AM14,IF(ISTEXT(E14),AN14,IF(ISTEXT(F14),AO14,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1276,32 +1355,37 @@
       <c r="G15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="AH15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="AI15" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B15),K15,IF(ISTEXT(C15),L15,IF(ISTEXT(D15),M15,IF(ISTEXT(E15),N15,IF(ISTEXT(F15),O15,0)))))</f>
+      <c r="AK15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B15),AK15,IF(ISTEXT(C15),AL15,IF(ISTEXT(D15),AM15,IF(ISTEXT(E15),AN15,IF(ISTEXT(F15),AO15,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1317,32 +1401,37 @@
       <c r="G16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="AH16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="AI16" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B16),K16,IF(ISTEXT(C16),L16,IF(ISTEXT(D16),M16,IF(ISTEXT(E16),N16,IF(ISTEXT(F16),O16,0)))))</f>
+      <c r="AK16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B16),AK16,IF(ISTEXT(C16),AL16,IF(ISTEXT(D16),AM16,IF(ISTEXT(E16),AN16,IF(ISTEXT(F16),AO16,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1358,32 +1447,37 @@
       <c r="G17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="AH17" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="AI17" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B17),K17,IF(ISTEXT(C17),L17,IF(ISTEXT(D17),M17,IF(ISTEXT(E17),N17,IF(ISTEXT(F17),O17,0)))))</f>
+      <c r="AK17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B17),AK17,IF(ISTEXT(C17),AL17,IF(ISTEXT(D17),AM17,IF(ISTEXT(E17),AN17,IF(ISTEXT(F17),AO17,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1399,32 +1493,37 @@
       <c r="G18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="AH18" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="AI18" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B18),K18,IF(ISTEXT(C18),L18,IF(ISTEXT(D18),M18,IF(ISTEXT(E18),N18,IF(ISTEXT(F18),O18,0)))))</f>
+      <c r="AK18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B18),AK18,IF(ISTEXT(C18),AL18,IF(ISTEXT(D18),AM18,IF(ISTEXT(E18),AN18,IF(ISTEXT(F18),AO18,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1440,32 +1539,37 @@
       <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="AH19" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="AI19" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B19),K19,IF(ISTEXT(C19),L19,IF(ISTEXT(D19),M19,IF(ISTEXT(E19),N19,IF(ISTEXT(F19),O19,0)))))</f>
+      <c r="AK19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B19),AK19,IF(ISTEXT(C19),AL19,IF(ISTEXT(D19),AM19,IF(ISTEXT(E19),AN19,IF(ISTEXT(F19),AO19,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1481,32 +1585,37 @@
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="AH20" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="AI20" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P20" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B20),K20,IF(ISTEXT(C20),L20,IF(ISTEXT(D20),M20,IF(ISTEXT(E20),N20,IF(ISTEXT(F20),O20,0)))))</f>
+      <c r="AJ20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B20),AK20,IF(ISTEXT(C20),AL20,IF(ISTEXT(D20),AM20,IF(ISTEXT(E20),AN20,IF(ISTEXT(F20),AO20,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1522,32 +1631,37 @@
       <c r="G21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="AH21" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="AI21" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P21" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B21),K21,IF(ISTEXT(C21),L21,IF(ISTEXT(D21),M21,IF(ISTEXT(E21),N21,IF(ISTEXT(F21),O21,0)))))</f>
+      <c r="AJ21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B21),AK21,IF(ISTEXT(C21),AL21,IF(ISTEXT(D21),AM21,IF(ISTEXT(E21),AN21,IF(ISTEXT(F21),AO21,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1563,32 +1677,37 @@
       <c r="G22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="AH22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="11" t="n">
+      <c r="AI22" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B22),K22,IF(ISTEXT(C22),L22,IF(ISTEXT(D22),M22,IF(ISTEXT(E22),N22,IF(ISTEXT(F22),O22,0)))))</f>
+      <c r="AJ22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B22),AK22,IF(ISTEXT(C22),AL22,IF(ISTEXT(D22),AM22,IF(ISTEXT(E22),AN22,IF(ISTEXT(F22),AO22,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,32 +1723,37 @@
       <c r="G23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="AH23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="AI23" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B23),K23,IF(ISTEXT(C23),L23,IF(ISTEXT(D23),M23,IF(ISTEXT(E23),N23,IF(ISTEXT(F23),O23,0)))))</f>
+      <c r="AK23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B23),AK23,IF(ISTEXT(C23),AL23,IF(ISTEXT(D23),AM23,IF(ISTEXT(E23),AN23,IF(ISTEXT(F23),AO23,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1645,32 +1769,37 @@
       <c r="G24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="AH24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="11" t="n">
+      <c r="AI24" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L24" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B24),K24,IF(ISTEXT(C24),L24,IF(ISTEXT(D24),M24,IF(ISTEXT(E24),N24,IF(ISTEXT(F24),O24,0)))))</f>
+      <c r="AK24" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B24),AK24,IF(ISTEXT(C24),AL24,IF(ISTEXT(D24),AM24,IF(ISTEXT(E24),AN24,IF(ISTEXT(F24),AO24,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1686,32 +1815,37 @@
       <c r="G25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="AH25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="AI25" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B25),K25,IF(ISTEXT(C25),L25,IF(ISTEXT(D25),M25,IF(ISTEXT(E25),N25,IF(ISTEXT(F25),O25,0)))))</f>
+      <c r="AK25" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B25),AK25,IF(ISTEXT(C25),AL25,IF(ISTEXT(D25),AM25,IF(ISTEXT(E25),AN25,IF(ISTEXT(F25),AO25,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1727,32 +1861,37 @@
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="AH26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="11" t="n">
+      <c r="AI26" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B26),K26,IF(ISTEXT(C26),L26,IF(ISTEXT(D26),M26,IF(ISTEXT(E26),N26,IF(ISTEXT(F26),O26,0)))))</f>
+      <c r="AK26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B26),AK26,IF(ISTEXT(C26),AL26,IF(ISTEXT(D26),AM26,IF(ISTEXT(E26),AN26,IF(ISTEXT(F26),AO26,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1768,32 +1907,37 @@
       <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="AH27" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="AI27" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L27" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B27),K27,IF(ISTEXT(C27),L27,IF(ISTEXT(D27),M27,IF(ISTEXT(E27),N27,IF(ISTEXT(F27),O27,0)))))</f>
+      <c r="AK27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B27),AK27,IF(ISTEXT(C27),AL27,IF(ISTEXT(D27),AM27,IF(ISTEXT(E27),AN27,IF(ISTEXT(F27),AO27,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1809,32 +1953,37 @@
       <c r="G28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="AH28" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="AI28" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O28" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P28" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B28),K28,IF(ISTEXT(C28),L28,IF(ISTEXT(D28),M28,IF(ISTEXT(E28),N28,IF(ISTEXT(F28),O28,0)))))</f>
+      <c r="AJ28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP28" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B28),AK28,IF(ISTEXT(C28),AL28,IF(ISTEXT(D28),AM28,IF(ISTEXT(E28),AN28,IF(ISTEXT(F28),AO28,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1850,32 +1999,37 @@
       <c r="G29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="AH29" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="11" t="n">
+      <c r="AI29" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L29" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B29),K29,IF(ISTEXT(C29),L29,IF(ISTEXT(D29),M29,IF(ISTEXT(E29),N29,IF(ISTEXT(F29),O29,0)))))</f>
+      <c r="AK29" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B29),AK29,IF(ISTEXT(C29),AL29,IF(ISTEXT(D29),AM29,IF(ISTEXT(E29),AN29,IF(ISTEXT(F29),AO29,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1891,32 +2045,37 @@
       <c r="G30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="AH30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="11" t="n">
+      <c r="AI30" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P30" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B30),K30,IF(ISTEXT(C30),L30,IF(ISTEXT(D30),M30,IF(ISTEXT(E30),N30,IF(ISTEXT(F30),O30,0)))))</f>
+      <c r="AJ30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN30" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP30" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B30),AK30,IF(ISTEXT(C30),AL30,IF(ISTEXT(D30),AM30,IF(ISTEXT(E30),AN30,IF(ISTEXT(F30),AO30,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1932,32 +2091,37 @@
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="AH31" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="11" t="n">
+      <c r="AI31" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K31" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B31),K31,IF(ISTEXT(C31),L31,IF(ISTEXT(D31),M31,IF(ISTEXT(E31),N31,IF(ISTEXT(F31),O31,0)))))</f>
+      <c r="AK31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B31),AK31,IF(ISTEXT(C31),AL31,IF(ISTEXT(D31),AM31,IF(ISTEXT(E31),AN31,IF(ISTEXT(F31),AO31,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -1973,32 +2137,37 @@
       <c r="G32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="AH32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="11" t="n">
+      <c r="AI32" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P32" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B32),K32,IF(ISTEXT(C32),L32,IF(ISTEXT(D32),M32,IF(ISTEXT(E32),N32,IF(ISTEXT(F32),O32,0)))))</f>
+      <c r="AJ32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP32" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B32),AK32,IF(ISTEXT(C32),AL32,IF(ISTEXT(D32),AM32,IF(ISTEXT(E32),AN32,IF(ISTEXT(F32),AO32,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2014,32 +2183,37 @@
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="AH33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="11" t="n">
+      <c r="AI33" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O33" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P33" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B33),K33,IF(ISTEXT(C33),L33,IF(ISTEXT(D33),M33,IF(ISTEXT(E33),N33,IF(ISTEXT(F33),O33,0)))))</f>
+      <c r="AJ33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP33" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B33),AK33,IF(ISTEXT(C33),AL33,IF(ISTEXT(D33),AM33,IF(ISTEXT(E33),AN33,IF(ISTEXT(F33),AO33,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2055,32 +2229,37 @@
       <c r="G34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="AH34" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="11" t="n">
+      <c r="AI34" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P34" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B34),K34,IF(ISTEXT(C34),L34,IF(ISTEXT(D34),M34,IF(ISTEXT(E34),N34,IF(ISTEXT(F34),O34,0)))))</f>
+      <c r="AJ34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO34" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP34" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B34),AK34,IF(ISTEXT(C34),AL34,IF(ISTEXT(D34),AM34,IF(ISTEXT(E34),AN34,IF(ISTEXT(F34),AO34,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2096,32 +2275,37 @@
       <c r="G35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="K35" s="0"/>
+      <c r="L35" s="0"/>
+      <c r="M35" s="0"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="AH35" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="AI35" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P35" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B35),K35,IF(ISTEXT(C35),L35,IF(ISTEXT(D35),M35,IF(ISTEXT(E35),N35,IF(ISTEXT(F35),O35,0)))))</f>
+      <c r="AJ35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO35" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP35" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B35),AK35,IF(ISTEXT(C35),AL35,IF(ISTEXT(D35),AM35,IF(ISTEXT(E35),AN35,IF(ISTEXT(F35),AO35,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2137,32 +2321,37 @@
       <c r="G36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="0"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="AH36" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="11" t="n">
+      <c r="AI36" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="AJ36" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K36" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L36" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B36),K36,IF(ISTEXT(C36),L36,IF(ISTEXT(D36),M36,IF(ISTEXT(E36),N36,IF(ISTEXT(F36),O36,0)))))</f>
+      <c r="AK36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B36),AK36,IF(ISTEXT(C36),AL36,IF(ISTEXT(D36),AM36,IF(ISTEXT(E36),AN36,IF(ISTEXT(F36),AO36,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2178,32 +2367,37 @@
       <c r="G37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="AH37" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="11" t="n">
+      <c r="AI37" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O37" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P37" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B37),K37,IF(ISTEXT(C37),L37,IF(ISTEXT(D37),M37,IF(ISTEXT(E37),N37,IF(ISTEXT(F37),O37,0)))))</f>
+      <c r="AJ37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO37" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP37" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B37),AK37,IF(ISTEXT(C37),AL37,IF(ISTEXT(D37),AM37,IF(ISTEXT(E37),AN37,IF(ISTEXT(F37),AO37,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2219,32 +2413,37 @@
       <c r="G38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="AH38" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="11" t="n">
+      <c r="AI38" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O38" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P38" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B38),K38,IF(ISTEXT(C38),L38,IF(ISTEXT(D38),M38,IF(ISTEXT(E38),N38,IF(ISTEXT(F38),O38,0)))))</f>
+      <c r="AJ38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP38" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B38),AK38,IF(ISTEXT(C38),AL38,IF(ISTEXT(D38),AM38,IF(ISTEXT(E38),AN38,IF(ISTEXT(F38),AO38,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2260,32 +2459,37 @@
       <c r="G39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="AH39" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="11" t="n">
+      <c r="AI39" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="AJ39" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K39" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L39" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B39),K39,IF(ISTEXT(C39),L39,IF(ISTEXT(D39),M39,IF(ISTEXT(E39),N39,IF(ISTEXT(F39),O39,0)))))</f>
+      <c r="AK39" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL39" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B39),AK39,IF(ISTEXT(C39),AL39,IF(ISTEXT(D39),AM39,IF(ISTEXT(E39),AN39,IF(ISTEXT(F39),AO39,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2301,32 +2505,37 @@
       <c r="G40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="AH40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="11" t="n">
+      <c r="AI40" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B40),K40,IF(ISTEXT(C40),L40,IF(ISTEXT(D40),M40,IF(ISTEXT(E40),N40,IF(ISTEXT(F40),O40,0)))))</f>
+      <c r="AJ40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP40" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B40),AK40,IF(ISTEXT(C40),AL40,IF(ISTEXT(D40),AM40,IF(ISTEXT(E40),AN40,IF(ISTEXT(F40),AO40,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2342,32 +2551,37 @@
       <c r="G41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="AH41" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="11" t="n">
+      <c r="AI41" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O41" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P41" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B41),K41,IF(ISTEXT(C41),L41,IF(ISTEXT(D41),M41,IF(ISTEXT(E41),N41,IF(ISTEXT(F41),O41,0)))))</f>
+      <c r="AJ41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP41" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B41),AK41,IF(ISTEXT(C41),AL41,IF(ISTEXT(D41),AM41,IF(ISTEXT(E41),AN41,IF(ISTEXT(F41),AO41,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2383,32 +2597,37 @@
       <c r="G42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="AH42" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="11" t="n">
+      <c r="AI42" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O42" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P42" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B42),K42,IF(ISTEXT(C42),L42,IF(ISTEXT(D42),M42,IF(ISTEXT(E42),N42,IF(ISTEXT(F42),O42,0)))))</f>
+      <c r="AJ42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP42" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B42),AK42,IF(ISTEXT(C42),AL42,IF(ISTEXT(D42),AM42,IF(ISTEXT(E42),AN42,IF(ISTEXT(F42),AO42,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2424,32 +2643,37 @@
       <c r="G43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="AH43" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="AI43" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O43" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P43" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B43),K43,IF(ISTEXT(C43),L43,IF(ISTEXT(D43),M43,IF(ISTEXT(E43),N43,IF(ISTEXT(F43),O43,0)))))</f>
+      <c r="AJ43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP43" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B43),AK43,IF(ISTEXT(C43),AL43,IF(ISTEXT(D43),AM43,IF(ISTEXT(E43),AN43,IF(ISTEXT(F43),AO43,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2465,32 +2689,37 @@
       <c r="G44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="AH44" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="11" t="n">
+      <c r="AI44" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O44" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P44" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B44),K44,IF(ISTEXT(C44),L44,IF(ISTEXT(D44),M44,IF(ISTEXT(E44),N44,IF(ISTEXT(F44),O44,0)))))</f>
+      <c r="AJ44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN44" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP44" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B44),AK44,IF(ISTEXT(C44),AL44,IF(ISTEXT(D44),AM44,IF(ISTEXT(E44),AN44,IF(ISTEXT(F44),AO44,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2506,32 +2735,37 @@
       <c r="G45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="AH45" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="11" t="n">
+      <c r="AI45" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O45" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P45" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B45),K45,IF(ISTEXT(C45),L45,IF(ISTEXT(D45),M45,IF(ISTEXT(E45),N45,IF(ISTEXT(F45),O45,0)))))</f>
+      <c r="AJ45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO45" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP45" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B45),AK45,IF(ISTEXT(C45),AL45,IF(ISTEXT(D45),AM45,IF(ISTEXT(E45),AN45,IF(ISTEXT(F45),AO45,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2547,32 +2781,37 @@
       <c r="G46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="AH46" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="11" t="n">
+      <c r="AI46" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="AJ46" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K46" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B46),K46,IF(ISTEXT(C46),L46,IF(ISTEXT(D46),M46,IF(ISTEXT(E46),N46,IF(ISTEXT(F46),O46,0)))))</f>
+      <c r="AK46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B46),AK46,IF(ISTEXT(C46),AL46,IF(ISTEXT(D46),AM46,IF(ISTEXT(E46),AN46,IF(ISTEXT(F46),AO46,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2588,32 +2827,37 @@
       <c r="G47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="AH47" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="11" t="n">
+      <c r="AI47" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="AJ47" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B47),K47,IF(ISTEXT(C47),L47,IF(ISTEXT(D47),M47,IF(ISTEXT(E47),N47,IF(ISTEXT(F47),O47,0)))))</f>
+      <c r="AK47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B47),AK47,IF(ISTEXT(C47),AL47,IF(ISTEXT(D47),AM47,IF(ISTEXT(E47),AN47,IF(ISTEXT(F47),AO47,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2629,32 +2873,37 @@
       <c r="G48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="AH48" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="11" t="n">
+      <c r="AI48" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O48" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P48" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B48),K48,IF(ISTEXT(C48),L48,IF(ISTEXT(D48),M48,IF(ISTEXT(E48),N48,IF(ISTEXT(F48),O48,0)))))</f>
+      <c r="AJ48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM48" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN48" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP48" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B48),AK48,IF(ISTEXT(C48),AL48,IF(ISTEXT(D48),AM48,IF(ISTEXT(E48),AN48,IF(ISTEXT(F48),AO48,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2670,32 +2919,37 @@
       <c r="G49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
+      <c r="O49" s="0"/>
+      <c r="AH49" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="11" t="n">
+      <c r="AI49" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P49" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B49),K49,IF(ISTEXT(C49),L49,IF(ISTEXT(D49),M49,IF(ISTEXT(E49),N49,IF(ISTEXT(F49),O49,0)))))</f>
+      <c r="AJ49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN49" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP49" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B49),AK49,IF(ISTEXT(C49),AL49,IF(ISTEXT(D49),AM49,IF(ISTEXT(E49),AN49,IF(ISTEXT(F49),AO49,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2711,32 +2965,37 @@
       <c r="G50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H50" s="0" t="s">
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="AH50" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="AI50" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O50" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P50" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B50),K50,IF(ISTEXT(C50),L50,IF(ISTEXT(D50),M50,IF(ISTEXT(E50),N50,IF(ISTEXT(F50),O50,0)))))</f>
+      <c r="AJ50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP50" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B50),AK50,IF(ISTEXT(C50),AL50,IF(ISTEXT(D50),AM50,IF(ISTEXT(E50),AN50,IF(ISTEXT(F50),AO50,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2752,32 +3011,37 @@
       <c r="G51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
+      <c r="O51" s="0"/>
+      <c r="AH51" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I51" s="11" t="n">
+      <c r="AI51" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L51" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O51" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P51" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B51),K51,IF(ISTEXT(C51),L51,IF(ISTEXT(D51),M51,IF(ISTEXT(E51),N51,IF(ISTEXT(F51),O51,0)))))</f>
+      <c r="AJ51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN51" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP51" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B51),AK51,IF(ISTEXT(C51),AL51,IF(ISTEXT(D51),AM51,IF(ISTEXT(E51),AN51,IF(ISTEXT(F51),AO51,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2793,32 +3057,37 @@
       <c r="G52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="0"/>
+      <c r="AH52" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="11" t="n">
+      <c r="AI52" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P52" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B52),K52,IF(ISTEXT(C52),L52,IF(ISTEXT(D52),M52,IF(ISTEXT(E52),N52,IF(ISTEXT(F52),O52,0)))))</f>
+      <c r="AJ52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM52" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN52" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP52" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B52),AK52,IF(ISTEXT(C52),AL52,IF(ISTEXT(D52),AM52,IF(ISTEXT(E52),AN52,IF(ISTEXT(F52),AO52,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2834,32 +3103,37 @@
       <c r="G53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="AH53" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="11" t="n">
+      <c r="AI53" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="AJ53" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L53" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B53),K53,IF(ISTEXT(C53),L53,IF(ISTEXT(D53),M53,IF(ISTEXT(E53),N53,IF(ISTEXT(F53),O53,0)))))</f>
+      <c r="AK53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM53" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B53),AK53,IF(ISTEXT(C53),AL53,IF(ISTEXT(D53),AM53,IF(ISTEXT(E53),AN53,IF(ISTEXT(F53),AO53,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2875,32 +3149,37 @@
       <c r="G54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
+      <c r="O54" s="0"/>
+      <c r="AH54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I54" s="11" t="n">
+      <c r="AI54" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O54" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P54" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B54),K54,IF(ISTEXT(C54),L54,IF(ISTEXT(D54),M54,IF(ISTEXT(E54),N54,IF(ISTEXT(F54),O54,0)))))</f>
+      <c r="AJ54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP54" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B54),AK54,IF(ISTEXT(C54),AL54,IF(ISTEXT(D54),AM54,IF(ISTEXT(E54),AN54,IF(ISTEXT(F54),AO54,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2916,32 +3195,37 @@
       <c r="G55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="AH55" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="11" t="n">
+      <c r="AI55" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="AJ55" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K55" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B55),K55,IF(ISTEXT(C55),L55,IF(ISTEXT(D55),M55,IF(ISTEXT(E55),N55,IF(ISTEXT(F55),O55,0)))))</f>
+      <c r="AK55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B55),AK55,IF(ISTEXT(C55),AL55,IF(ISTEXT(D55),AM55,IF(ISTEXT(E55),AN55,IF(ISTEXT(F55),AO55,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2957,32 +3241,37 @@
       <c r="G56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="AH56" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="11" t="n">
+      <c r="AI56" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="AJ56" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K56" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B56),K56,IF(ISTEXT(C56),L56,IF(ISTEXT(D56),M56,IF(ISTEXT(E56),N56,IF(ISTEXT(F56),O56,0)))))</f>
+      <c r="AK56" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP56" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B56),AK56,IF(ISTEXT(C56),AL56,IF(ISTEXT(D56),AM56,IF(ISTEXT(E56),AN56,IF(ISTEXT(F56),AO56,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -2998,32 +3287,37 @@
       <c r="G57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="AH57" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="11" t="n">
+      <c r="AI57" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="AJ57" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K57" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L57" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B57),K57,IF(ISTEXT(C57),L57,IF(ISTEXT(D57),M57,IF(ISTEXT(E57),N57,IF(ISTEXT(F57),O57,0)))))</f>
+      <c r="AK57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B57),AK57,IF(ISTEXT(C57),AL57,IF(ISTEXT(D57),AM57,IF(ISTEXT(E57),AN57,IF(ISTEXT(F57),AO57,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3039,32 +3333,37 @@
       <c r="G58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="AH58" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="AI58" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J58" s="0" t="n">
+      <c r="AJ58" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K58" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B58),K58,IF(ISTEXT(C58),L58,IF(ISTEXT(D58),M58,IF(ISTEXT(E58),N58,IF(ISTEXT(F58),O58,0)))))</f>
+      <c r="AK58" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL58" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM58" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B58),AK58,IF(ISTEXT(C58),AL58,IF(ISTEXT(D58),AM58,IF(ISTEXT(E58),AN58,IF(ISTEXT(F58),AO58,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3080,32 +3379,37 @@
       <c r="G59" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="AH59" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="11" t="n">
+      <c r="AI59" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O59" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P59" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B59),K59,IF(ISTEXT(C59),L59,IF(ISTEXT(D59),M59,IF(ISTEXT(E59),N59,IF(ISTEXT(F59),O59,0)))))</f>
+      <c r="AJ59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM59" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP59" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B59),AK59,IF(ISTEXT(C59),AL59,IF(ISTEXT(D59),AM59,IF(ISTEXT(E59),AN59,IF(ISTEXT(F59),AO59,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3121,32 +3425,37 @@
       <c r="G60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0"/>
+      <c r="O60" s="0"/>
+      <c r="AH60" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="11" t="n">
+      <c r="AI60" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J60" s="0" t="n">
+      <c r="AJ60" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K60" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L60" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B60),K60,IF(ISTEXT(C60),L60,IF(ISTEXT(D60),M60,IF(ISTEXT(E60),N60,IF(ISTEXT(F60),O60,0)))))</f>
+      <c r="AK60" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM60" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B60),AK60,IF(ISTEXT(C60),AL60,IF(ISTEXT(D60),AM60,IF(ISTEXT(E60),AN60,IF(ISTEXT(F60),AO60,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3162,32 +3471,37 @@
       <c r="G61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="AH61" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="11" t="n">
+      <c r="AI61" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O61" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P61" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B61),K61,IF(ISTEXT(C61),L61,IF(ISTEXT(D61),M61,IF(ISTEXT(E61),N61,IF(ISTEXT(F61),O61,0)))))</f>
+      <c r="AJ61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO61" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP61" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B61),AK61,IF(ISTEXT(C61),AL61,IF(ISTEXT(D61),AM61,IF(ISTEXT(E61),AN61,IF(ISTEXT(F61),AO61,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3203,32 +3517,37 @@
       <c r="G62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="AH62" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="11" t="n">
+      <c r="AI62" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O62" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P62" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B62),K62,IF(ISTEXT(C62),L62,IF(ISTEXT(D62),M62,IF(ISTEXT(E62),N62,IF(ISTEXT(F62),O62,0)))))</f>
+      <c r="AJ62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM62" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO62" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP62" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B62),AK62,IF(ISTEXT(C62),AL62,IF(ISTEXT(D62),AM62,IF(ISTEXT(E62),AN62,IF(ISTEXT(F62),AO62,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3244,32 +3563,37 @@
       <c r="G63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="AH63" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="11" t="n">
+      <c r="AI63" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J63" s="0" t="n">
+      <c r="AJ63" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K63" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L63" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B63),K63,IF(ISTEXT(C63),L63,IF(ISTEXT(D63),M63,IF(ISTEXT(E63),N63,IF(ISTEXT(F63),O63,0)))))</f>
+      <c r="AK63" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL63" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM63" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B63),AK63,IF(ISTEXT(C63),AL63,IF(ISTEXT(D63),AM63,IF(ISTEXT(E63),AN63,IF(ISTEXT(F63),AO63,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3285,32 +3609,37 @@
       <c r="G64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="0" t="s">
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="AH64" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="11" t="n">
+      <c r="AI64" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O64" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P64" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B64),K64,IF(ISTEXT(C64),L64,IF(ISTEXT(D64),M64,IF(ISTEXT(E64),N64,IF(ISTEXT(F64),O64,0)))))</f>
+      <c r="AJ64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP64" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B64),AK64,IF(ISTEXT(C64),AL64,IF(ISTEXT(D64),AM64,IF(ISTEXT(E64),AN64,IF(ISTEXT(F64),AO64,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3326,32 +3655,37 @@
       <c r="G65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="AH65" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="11" t="n">
+      <c r="AI65" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J65" s="0" t="n">
+      <c r="AJ65" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K65" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L65" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B65),K65,IF(ISTEXT(C65),L65,IF(ISTEXT(D65),M65,IF(ISTEXT(E65),N65,IF(ISTEXT(F65),O65,0)))))</f>
+      <c r="AK65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM65" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP65" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B65),AK65,IF(ISTEXT(C65),AL65,IF(ISTEXT(D65),AM65,IF(ISTEXT(E65),AN65,IF(ISTEXT(F65),AO65,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3367,32 +3701,37 @@
       <c r="G66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="AH66" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="11" t="n">
+      <c r="AI66" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N66" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O66" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P66" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B66),K66,IF(ISTEXT(C66),L66,IF(ISTEXT(D66),M66,IF(ISTEXT(E66),N66,IF(ISTEXT(F66),O66,0)))))</f>
+      <c r="AJ66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP66" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B66),AK66,IF(ISTEXT(C66),AL66,IF(ISTEXT(D66),AM66,IF(ISTEXT(E66),AN66,IF(ISTEXT(F66),AO66,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3408,32 +3747,37 @@
       <c r="G67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="AH67" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="11" t="n">
+      <c r="AI67" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O67" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P67" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B67),K67,IF(ISTEXT(C67),L67,IF(ISTEXT(D67),M67,IF(ISTEXT(E67),N67,IF(ISTEXT(F67),O67,0)))))</f>
+      <c r="AJ67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM67" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP67" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B67),AK67,IF(ISTEXT(C67),AL67,IF(ISTEXT(D67),AM67,IF(ISTEXT(E67),AN67,IF(ISTEXT(F67),AO67,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3449,32 +3793,37 @@
       <c r="G68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+      <c r="N68" s="0"/>
+      <c r="O68" s="0"/>
+      <c r="AH68" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I68" s="11" t="n">
+      <c r="AI68" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M68" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N68" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O68" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P68" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B68),K68,IF(ISTEXT(C68),L68,IF(ISTEXT(D68),M68,IF(ISTEXT(E68),N68,IF(ISTEXT(F68),O68,0)))))</f>
+      <c r="AJ68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP68" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B68),AK68,IF(ISTEXT(C68),AL68,IF(ISTEXT(D68),AM68,IF(ISTEXT(E68),AN68,IF(ISTEXT(F68),AO68,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3490,32 +3839,37 @@
       <c r="G69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
+      <c r="O69" s="0"/>
+      <c r="AH69" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="11" t="n">
+      <c r="AI69" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O69" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P69" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B69),K69,IF(ISTEXT(C69),L69,IF(ISTEXT(D69),M69,IF(ISTEXT(E69),N69,IF(ISTEXT(F69),O69,0)))))</f>
+      <c r="AJ69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP69" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B69),AK69,IF(ISTEXT(C69),AL69,IF(ISTEXT(D69),AM69,IF(ISTEXT(E69),AN69,IF(ISTEXT(F69),AO69,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3531,32 +3885,37 @@
       <c r="G70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="AH70" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="11" t="n">
+      <c r="AI70" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N70" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O70" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P70" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B70),K70,IF(ISTEXT(C70),L70,IF(ISTEXT(D70),M70,IF(ISTEXT(E70),N70,IF(ISTEXT(F70),O70,0)))))</f>
+      <c r="AJ70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO70" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP70" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B70),AK70,IF(ISTEXT(C70),AL70,IF(ISTEXT(D70),AM70,IF(ISTEXT(E70),AN70,IF(ISTEXT(F70),AO70,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3572,32 +3931,37 @@
       <c r="G71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
+      <c r="AH71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="11" t="n">
+      <c r="AI71" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="AJ71" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K71" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L71" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M71" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N71" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O71" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B71),K71,IF(ISTEXT(C71),L71,IF(ISTEXT(D71),M71,IF(ISTEXT(E71),N71,IF(ISTEXT(F71),O71,0)))))</f>
+      <c r="AK71" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL71" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM71" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B71),AK71,IF(ISTEXT(C71),AL71,IF(ISTEXT(D71),AM71,IF(ISTEXT(E71),AN71,IF(ISTEXT(F71),AO71,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3613,32 +3977,37 @@
       <c r="G72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="AH72" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I72" s="11" t="n">
+      <c r="AI72" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M72" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N72" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O72" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P72" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B72),K72,IF(ISTEXT(C72),L72,IF(ISTEXT(D72),M72,IF(ISTEXT(E72),N72,IF(ISTEXT(F72),O72,0)))))</f>
+      <c r="AJ72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN72" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP72" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B72),AK72,IF(ISTEXT(C72),AL72,IF(ISTEXT(D72),AM72,IF(ISTEXT(E72),AN72,IF(ISTEXT(F72),AO72,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3654,32 +4023,37 @@
       <c r="G73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="0" t="s">
+      <c r="K73" s="0"/>
+      <c r="L73" s="0"/>
+      <c r="M73" s="0"/>
+      <c r="N73" s="0"/>
+      <c r="O73" s="0"/>
+      <c r="AH73" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I73" s="11" t="n">
+      <c r="AI73" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O73" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P73" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B73),K73,IF(ISTEXT(C73),L73,IF(ISTEXT(D73),M73,IF(ISTEXT(E73),N73,IF(ISTEXT(F73),O73,0)))))</f>
+      <c r="AJ73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN73" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP73" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B73),AK73,IF(ISTEXT(C73),AL73,IF(ISTEXT(D73),AM73,IF(ISTEXT(E73),AN73,IF(ISTEXT(F73),AO73,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3695,32 +4069,37 @@
       <c r="G74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H74" s="0" t="s">
+      <c r="K74" s="0"/>
+      <c r="L74" s="0"/>
+      <c r="M74" s="0"/>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="AH74" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="11" t="n">
+      <c r="AI74" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J74" s="0" t="n">
+      <c r="AJ74" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K74" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L74" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N74" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B74),K74,IF(ISTEXT(C74),L74,IF(ISTEXT(D74),M74,IF(ISTEXT(E74),N74,IF(ISTEXT(F74),O74,0)))))</f>
+      <c r="AK74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL74" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM74" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP74" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B74),AK74,IF(ISTEXT(C74),AL74,IF(ISTEXT(D74),AM74,IF(ISTEXT(E74),AN74,IF(ISTEXT(F74),AO74,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3736,32 +4115,37 @@
       <c r="G75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="K75" s="0"/>
+      <c r="L75" s="0"/>
+      <c r="M75" s="0"/>
+      <c r="N75" s="0"/>
+      <c r="O75" s="0"/>
+      <c r="AH75" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I75" s="11" t="n">
+      <c r="AI75" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J75" s="0" t="n">
+      <c r="AJ75" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K75" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L75" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N75" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P75" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B75),K75,IF(ISTEXT(C75),L75,IF(ISTEXT(D75),M75,IF(ISTEXT(E75),N75,IF(ISTEXT(F75),O75,0)))))</f>
+      <c r="AK75" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL75" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM75" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO75" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP75" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B75),AK75,IF(ISTEXT(C75),AL75,IF(ISTEXT(D75),AM75,IF(ISTEXT(E75),AN75,IF(ISTEXT(F75),AO75,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3777,32 +4161,37 @@
       <c r="G76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="0" t="s">
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="0"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="AH76" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I76" s="11" t="n">
+      <c r="AI76" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J76" s="0" t="n">
+      <c r="AJ76" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K76" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L76" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M76" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N76" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P76" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B76),K76,IF(ISTEXT(C76),L76,IF(ISTEXT(D76),M76,IF(ISTEXT(E76),N76,IF(ISTEXT(F76),O76,0)))))</f>
+      <c r="AK76" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL76" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM76" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP76" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B76),AK76,IF(ISTEXT(C76),AL76,IF(ISTEXT(D76),AM76,IF(ISTEXT(E76),AN76,IF(ISTEXT(F76),AO76,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3818,32 +4207,37 @@
       <c r="G77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H77" s="0" t="s">
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0"/>
+      <c r="N77" s="0"/>
+      <c r="O77" s="0"/>
+      <c r="AH77" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="11" t="n">
+      <c r="AI77" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J77" s="0" t="n">
+      <c r="AJ77" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K77" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L77" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N77" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B77),K77,IF(ISTEXT(C77),L77,IF(ISTEXT(D77),M77,IF(ISTEXT(E77),N77,IF(ISTEXT(F77),O77,0)))))</f>
+      <c r="AK77" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL77" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM77" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP77" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B77),AK77,IF(ISTEXT(C77),AL77,IF(ISTEXT(D77),AM77,IF(ISTEXT(E77),AN77,IF(ISTEXT(F77),AO77,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3859,32 +4253,37 @@
       <c r="G78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="0" t="s">
+      <c r="K78" s="0"/>
+      <c r="L78" s="0"/>
+      <c r="M78" s="0"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="AH78" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="11" t="n">
+      <c r="AI78" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M78" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P78" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B78),K78,IF(ISTEXT(C78),L78,IF(ISTEXT(D78),M78,IF(ISTEXT(E78),N78,IF(ISTEXT(F78),O78,0)))))</f>
+      <c r="AJ78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM78" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN78" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO78" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP78" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B78),AK78,IF(ISTEXT(C78),AL78,IF(ISTEXT(D78),AM78,IF(ISTEXT(E78),AN78,IF(ISTEXT(F78),AO78,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3900,32 +4299,37 @@
       <c r="G79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="0"/>
+      <c r="N79" s="0"/>
+      <c r="O79" s="0"/>
+      <c r="AH79" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="11" t="n">
+      <c r="AI79" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="AJ79" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K79" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L79" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B79),K79,IF(ISTEXT(C79),L79,IF(ISTEXT(D79),M79,IF(ISTEXT(E79),N79,IF(ISTEXT(F79),O79,0)))))</f>
+      <c r="AK79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP79" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B79),AK79,IF(ISTEXT(C79),AL79,IF(ISTEXT(D79),AM79,IF(ISTEXT(E79),AN79,IF(ISTEXT(F79),AO79,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3941,32 +4345,37 @@
       <c r="G80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
+      <c r="O80" s="0"/>
+      <c r="AH80" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I80" s="11" t="n">
+      <c r="AI80" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="AJ80" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K80" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B80),K80,IF(ISTEXT(C80),L80,IF(ISTEXT(D80),M80,IF(ISTEXT(E80),N80,IF(ISTEXT(F80),O80,0)))))</f>
+      <c r="AK80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL80" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM80" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP80" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B80),AK80,IF(ISTEXT(C80),AL80,IF(ISTEXT(D80),AM80,IF(ISTEXT(E80),AN80,IF(ISTEXT(F80),AO80,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -3982,32 +4391,37 @@
       <c r="G81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
+      <c r="O81" s="0"/>
+      <c r="AH81" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I81" s="11" t="n">
+      <c r="AI81" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="AJ81" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K81" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L81" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M81" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N81" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P81" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B81),K81,IF(ISTEXT(C81),L81,IF(ISTEXT(D81),M81,IF(ISTEXT(E81),N81,IF(ISTEXT(F81),O81,0)))))</f>
+      <c r="AK81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL81" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM81" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN81" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO81" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP81" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B81),AK81,IF(ISTEXT(C81),AL81,IF(ISTEXT(D81),AM81,IF(ISTEXT(E81),AN81,IF(ISTEXT(F81),AO81,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4023,32 +4437,37 @@
       <c r="G82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
+      <c r="O82" s="0"/>
+      <c r="AH82" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I82" s="11" t="n">
+      <c r="AI82" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M82" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N82" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O82" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P82" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B82),K82,IF(ISTEXT(C82),L82,IF(ISTEXT(D82),M82,IF(ISTEXT(E82),N82,IF(ISTEXT(F82),O82,0)))))</f>
+      <c r="AJ82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL82" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM82" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN82" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP82" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B82),AK82,IF(ISTEXT(C82),AL82,IF(ISTEXT(D82),AM82,IF(ISTEXT(E82),AN82,IF(ISTEXT(F82),AO82,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4064,32 +4483,37 @@
       <c r="G83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="AH83" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I83" s="11" t="n">
+      <c r="AI83" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="AJ83" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K83" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L83" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M83" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N83" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B83),K83,IF(ISTEXT(C83),L83,IF(ISTEXT(D83),M83,IF(ISTEXT(E83),N83,IF(ISTEXT(F83),O83,0)))))</f>
+      <c r="AK83" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL83" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM83" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP83" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B83),AK83,IF(ISTEXT(C83),AL83,IF(ISTEXT(D83),AM83,IF(ISTEXT(E83),AN83,IF(ISTEXT(F83),AO83,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4105,32 +4529,37 @@
       <c r="G84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H84" s="0" t="s">
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="0"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="AH84" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="11" t="n">
+      <c r="AI84" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N84" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O84" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P84" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B84),K84,IF(ISTEXT(C84),L84,IF(ISTEXT(D84),M84,IF(ISTEXT(E84),N84,IF(ISTEXT(F84),O84,0)))))</f>
+      <c r="AJ84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK84" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL84" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN84" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO84" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP84" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B84),AK84,IF(ISTEXT(C84),AL84,IF(ISTEXT(D84),AM84,IF(ISTEXT(E84),AN84,IF(ISTEXT(F84),AO84,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4146,32 +4575,37 @@
       <c r="G85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="AH85" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I85" s="11" t="n">
+      <c r="AI85" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M85" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O85" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P85" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B85),K85,IF(ISTEXT(C85),L85,IF(ISTEXT(D85),M85,IF(ISTEXT(E85),N85,IF(ISTEXT(F85),O85,0)))))</f>
+      <c r="AJ85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK85" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL85" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM85" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN85" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO85" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP85" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B85),AK85,IF(ISTEXT(C85),AL85,IF(ISTEXT(D85),AM85,IF(ISTEXT(E85),AN85,IF(ISTEXT(F85),AO85,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4187,32 +4621,37 @@
       <c r="G86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H86" s="0" t="s">
+      <c r="K86" s="0"/>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="AH86" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I86" s="11" t="n">
+      <c r="AI86" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J86" s="0" t="n">
+      <c r="AJ86" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K86" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N86" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O86" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P86" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B86),K86,IF(ISTEXT(C86),L86,IF(ISTEXT(D86),M86,IF(ISTEXT(E86),N86,IF(ISTEXT(F86),O86,0)))))</f>
+      <c r="AK86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP86" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B86),AK86,IF(ISTEXT(C86),AL86,IF(ISTEXT(D86),AM86,IF(ISTEXT(E86),AN86,IF(ISTEXT(F86),AO86,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4228,32 +4667,37 @@
       <c r="G87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="0" t="s">
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="AH87" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="11" t="n">
+      <c r="AI87" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M87" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N87" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O87" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P87" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B87),K87,IF(ISTEXT(C87),L87,IF(ISTEXT(D87),M87,IF(ISTEXT(E87),N87,IF(ISTEXT(F87),O87,0)))))</f>
+      <c r="AJ87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP87" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B87),AK87,IF(ISTEXT(C87),AL87,IF(ISTEXT(D87),AM87,IF(ISTEXT(E87),AN87,IF(ISTEXT(F87),AO87,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4269,32 +4713,37 @@
       <c r="G88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H88" s="0" t="s">
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="AH88" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="11" t="n">
+      <c r="AI88" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J88" s="0" t="n">
+      <c r="AJ88" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K88" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L88" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M88" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N88" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P88" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B88),K88,IF(ISTEXT(C88),L88,IF(ISTEXT(D88),M88,IF(ISTEXT(E88),N88,IF(ISTEXT(F88),O88,0)))))</f>
+      <c r="AK88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP88" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B88),AK88,IF(ISTEXT(C88),AL88,IF(ISTEXT(D88),AM88,IF(ISTEXT(E88),AN88,IF(ISTEXT(F88),AO88,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4310,32 +4759,37 @@
       <c r="G89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="0" t="s">
+      <c r="K89" s="0"/>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
+      <c r="N89" s="0"/>
+      <c r="O89" s="0"/>
+      <c r="AH89" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="11" t="n">
+      <c r="AI89" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J89" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M89" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N89" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O89" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P89" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B89),K89,IF(ISTEXT(C89),L89,IF(ISTEXT(D89),M89,IF(ISTEXT(E89),N89,IF(ISTEXT(F89),O89,0)))))</f>
+      <c r="AJ89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP89" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B89),AK89,IF(ISTEXT(C89),AL89,IF(ISTEXT(D89),AM89,IF(ISTEXT(E89),AN89,IF(ISTEXT(F89),AO89,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4351,32 +4805,37 @@
       <c r="G90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="0" t="s">
+      <c r="K90" s="0"/>
+      <c r="L90" s="0"/>
+      <c r="M90" s="0"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="AH90" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I90" s="11" t="n">
+      <c r="AI90" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N90" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O90" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P90" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B90),K90,IF(ISTEXT(C90),L90,IF(ISTEXT(D90),M90,IF(ISTEXT(E90),N90,IF(ISTEXT(F90),O90,0)))))</f>
+      <c r="AJ90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM90" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN90" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO90" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP90" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B90),AK90,IF(ISTEXT(C90),AL90,IF(ISTEXT(D90),AM90,IF(ISTEXT(E90),AN90,IF(ISTEXT(F90),AO90,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4392,32 +4851,37 @@
       <c r="G91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="0" t="s">
+      <c r="K91" s="0"/>
+      <c r="L91" s="0"/>
+      <c r="M91" s="0"/>
+      <c r="N91" s="0"/>
+      <c r="O91" s="0"/>
+      <c r="AH91" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="11" t="n">
+      <c r="AI91" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N91" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O91" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P91" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B91),K91,IF(ISTEXT(C91),L91,IF(ISTEXT(D91),M91,IF(ISTEXT(E91),N91,IF(ISTEXT(F91),O91,0)))))</f>
+      <c r="AJ91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM91" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN91" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO91" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP91" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B91),AK91,IF(ISTEXT(C91),AL91,IF(ISTEXT(D91),AM91,IF(ISTEXT(E91),AN91,IF(ISTEXT(F91),AO91,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4433,32 +4897,37 @@
       <c r="G92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H92" s="0" t="s">
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="AH92" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I92" s="11" t="n">
+      <c r="AI92" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N92" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O92" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P92" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B92),K92,IF(ISTEXT(C92),L92,IF(ISTEXT(D92),M92,IF(ISTEXT(E92),N92,IF(ISTEXT(F92),O92,0)))))</f>
+      <c r="AJ92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL92" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM92" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN92" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO92" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP92" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B92),AK92,IF(ISTEXT(C92),AL92,IF(ISTEXT(D92),AM92,IF(ISTEXT(E92),AN92,IF(ISTEXT(F92),AO92,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4474,32 +4943,37 @@
       <c r="G93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="0" t="s">
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="0"/>
+      <c r="N93" s="0"/>
+      <c r="O93" s="0"/>
+      <c r="AH93" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="11" t="n">
+      <c r="AI93" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J93" s="0" t="n">
+      <c r="AJ93" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K93" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L93" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M93" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N93" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P93" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B93),K93,IF(ISTEXT(C93),L93,IF(ISTEXT(D93),M93,IF(ISTEXT(E93),N93,IF(ISTEXT(F93),O93,0)))))</f>
+      <c r="AK93" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL93" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM93" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP93" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B93),AK93,IF(ISTEXT(C93),AL93,IF(ISTEXT(D93),AM93,IF(ISTEXT(E93),AN93,IF(ISTEXT(F93),AO93,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4515,32 +4989,37 @@
       <c r="G94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="0" t="s">
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="AH94" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="11" t="n">
+      <c r="AI94" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J94" s="0" t="n">
+      <c r="AJ94" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K94" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L94" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N94" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P94" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B94),K94,IF(ISTEXT(C94),L94,IF(ISTEXT(D94),M94,IF(ISTEXT(E94),N94,IF(ISTEXT(F94),O94,0)))))</f>
+      <c r="AK94" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL94" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM94" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN94" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B94),AK94,IF(ISTEXT(C94),AL94,IF(ISTEXT(D94),AM94,IF(ISTEXT(E94),AN94,IF(ISTEXT(F94),AO94,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4556,32 +5035,37 @@
       <c r="G95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H95" s="0" t="s">
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="0"/>
+      <c r="N95" s="0"/>
+      <c r="O95" s="0"/>
+      <c r="AH95" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I95" s="11" t="n">
+      <c r="AI95" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J95" s="0" t="n">
+      <c r="AJ95" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K95" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L95" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M95" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N95" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O95" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B95),K95,IF(ISTEXT(C95),L95,IF(ISTEXT(D95),M95,IF(ISTEXT(E95),N95,IF(ISTEXT(F95),O95,0)))))</f>
+      <c r="AK95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM95" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN95" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B95),AK95,IF(ISTEXT(C95),AL95,IF(ISTEXT(D95),AM95,IF(ISTEXT(E95),AN95,IF(ISTEXT(F95),AO95,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4597,32 +5081,37 @@
       <c r="G96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="0" t="s">
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="AH96" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I96" s="11" t="n">
+      <c r="AI96" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J96" s="0" t="n">
+      <c r="AJ96" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K96" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L96" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M96" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N96" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P96" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B96),K96,IF(ISTEXT(C96),L96,IF(ISTEXT(D96),M96,IF(ISTEXT(E96),N96,IF(ISTEXT(F96),O96,0)))))</f>
+      <c r="AK96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL96" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM96" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN96" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP96" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B96),AK96,IF(ISTEXT(C96),AL96,IF(ISTEXT(D96),AM96,IF(ISTEXT(E96),AN96,IF(ISTEXT(F96),AO96,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4638,32 +5127,37 @@
       <c r="G97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H97" s="0" t="s">
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
+      <c r="O97" s="0"/>
+      <c r="AH97" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I97" s="11" t="n">
+      <c r="AI97" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L97" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M97" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N97" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O97" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P97" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B97),K97,IF(ISTEXT(C97),L97,IF(ISTEXT(D97),M97,IF(ISTEXT(E97),N97,IF(ISTEXT(F97),O97,0)))))</f>
+      <c r="AJ97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK97" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL97" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM97" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN97" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO97" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP97" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B97),AK97,IF(ISTEXT(C97),AL97,IF(ISTEXT(D97),AM97,IF(ISTEXT(E97),AN97,IF(ISTEXT(F97),AO97,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4679,32 +5173,37 @@
       <c r="G98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H98" s="0" t="s">
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
+      <c r="O98" s="0"/>
+      <c r="AH98" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="11" t="n">
+      <c r="AI98" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M98" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N98" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O98" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P98" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B98),K98,IF(ISTEXT(C98),L98,IF(ISTEXT(D98),M98,IF(ISTEXT(E98),N98,IF(ISTEXT(F98),O98,0)))))</f>
+      <c r="AJ98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK98" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL98" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM98" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO98" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP98" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B98),AK98,IF(ISTEXT(C98),AL98,IF(ISTEXT(D98),AM98,IF(ISTEXT(E98),AN98,IF(ISTEXT(F98),AO98,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4720,32 +5219,37 @@
       <c r="G99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="AH99" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I99" s="11" t="n">
+      <c r="AI99" s="11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J99" s="0" t="n">
+      <c r="AJ99" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K99" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L99" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N99" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O99" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P99" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B99),K99,IF(ISTEXT(C99),L99,IF(ISTEXT(D99),M99,IF(ISTEXT(E99),N99,IF(ISTEXT(F99),O99,0)))))</f>
+      <c r="AK99" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL99" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM99" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN99" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO99" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP99" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B99),AK99,IF(ISTEXT(C99),AL99,IF(ISTEXT(D99),AM99,IF(ISTEXT(E99),AN99,IF(ISTEXT(F99),AO99,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4761,32 +5265,37 @@
       <c r="G100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="0" t="s">
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="0"/>
+      <c r="N100" s="0"/>
+      <c r="O100" s="0"/>
+      <c r="AH100" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I100" s="11" t="n">
+      <c r="AI100" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J100" s="0" t="n">
+      <c r="AJ100" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K100" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L100" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M100" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N100" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P100" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B100),K100,IF(ISTEXT(C100),L100,IF(ISTEXT(D100),M100,IF(ISTEXT(E100),N100,IF(ISTEXT(F100),O100,0)))))</f>
+      <c r="AK100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP100" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B100),AK100,IF(ISTEXT(C100),AL100,IF(ISTEXT(D100),AM100,IF(ISTEXT(E100),AN100,IF(ISTEXT(F100),AO100,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4802,32 +5311,37 @@
       <c r="G101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="0" t="s">
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="0"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="AH101" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I101" s="11" t="n">
+      <c r="AI101" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M101" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N101" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O101" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="P101" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B101),K101,IF(ISTEXT(C101),L101,IF(ISTEXT(D101),M101,IF(ISTEXT(E101),N101,IF(ISTEXT(F101),O101,0)))))</f>
+      <c r="AJ101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL101" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP101" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B101),AK101,IF(ISTEXT(C101),AL101,IF(ISTEXT(D101),AM101,IF(ISTEXT(E101),AN101,IF(ISTEXT(F101),AO101,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4843,32 +5357,37 @@
       <c r="G102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="0" t="s">
+      <c r="K102" s="0"/>
+      <c r="L102" s="0"/>
+      <c r="M102" s="0"/>
+      <c r="N102" s="0"/>
+      <c r="O102" s="0"/>
+      <c r="AH102" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="11" t="n">
+      <c r="AI102" s="11" t="n">
         <v>0.91</v>
       </c>
-      <c r="J102" s="0" t="n">
+      <c r="AJ102" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K102" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M102" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N102" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O102" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B102),K102,IF(ISTEXT(C102),L102,IF(ISTEXT(D102),M102,IF(ISTEXT(E102),N102,IF(ISTEXT(F102),O102,0)))))</f>
+      <c r="AK102" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL102" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM102" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN102" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP102" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B102),AK102,IF(ISTEXT(C102),AL102,IF(ISTEXT(D102),AM102,IF(ISTEXT(E102),AN102,IF(ISTEXT(F102),AO102,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4884,32 +5403,37 @@
       <c r="G103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H103" s="0" t="s">
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
+      <c r="O103" s="0"/>
+      <c r="AH103" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="I103" s="11" t="n">
+      <c r="AI103" s="11" t="n">
         <v>0.85</v>
       </c>
-      <c r="J103" s="0" t="n">
+      <c r="AJ103" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K103" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M103" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N103" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O103" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P103" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B103),K103,IF(ISTEXT(C103),L103,IF(ISTEXT(D103),M103,IF(ISTEXT(E103),N103,IF(ISTEXT(F103),O103,0)))))</f>
+      <c r="AK103" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL103" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM103" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP103" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B103),AK103,IF(ISTEXT(C103),AL103,IF(ISTEXT(D103),AM103,IF(ISTEXT(E103),AN103,IF(ISTEXT(F103),AO103,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4925,32 +5449,37 @@
       <c r="G104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H104" s="0" t="s">
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
+      <c r="N104" s="0"/>
+      <c r="O104" s="0"/>
+      <c r="AH104" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="11" t="n">
+      <c r="AI104" s="11" t="n">
         <v>0.89</v>
       </c>
-      <c r="J104" s="0" t="n">
+      <c r="AJ104" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="K104" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="L104" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M104" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N104" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O104" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" s="4" t="n">
-        <f aca="false">IF(ISTEXT(B104),K104,IF(ISTEXT(C104),L104,IF(ISTEXT(D104),M104,IF(ISTEXT(E104),N104,IF(ISTEXT(F104),O104,0)))))</f>
+      <c r="AK104" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL104" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN104" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP104" s="4" t="n">
+        <f aca="false">IF(ISTEXT(B104),AK104,IF(ISTEXT(C104),AL104,IF(ISTEXT(D104),AM104,IF(ISTEXT(E104),AN104,IF(ISTEXT(F104),AO104,0)))))</f>
         <v>0</v>
       </c>
     </row>
@@ -4966,17 +5495,10 @@
       <c r="G105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2"/>
@@ -4990,7 +5512,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5032,9 +5554,12 @@
       <c r="J110" s="2"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5042,19 +5567,7 @@
       <c r="J111" s="2"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>125</v>
-      </c>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="I112" s="2"/>
@@ -5062,21 +5575,6 @@
       <c r="O112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <f aca="false">SUM(P7+P13+P18+P30+P34+P39+P43+P48+P51+P54+P65+P68+P72+P76+P81+P88+P91+P94+P100+P104)</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B113,20),5),4)</f>
-        <v>-25</v>
-      </c>
-      <c r="D113" s="18" t="str">
-        <f aca="false">IF(C113&lt;=20,"Very Low",IF(C113&lt;=36,"Low",IF(C113&lt;=46,"A Little Low",IF(C113&lt;=53,"Average",IF(C113&lt;=63,"A Little High",IF(C113&lt;=79,"High","Very High"))))))</f>
-        <v>Very Low</v>
-      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="I113" s="2"/>
@@ -5084,21 +5582,6 @@
       <c r="O113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <f aca="false">SUM(P6+P10+P20+P25+P28+P31+P35+P42+P46+P57+P59+P61+P69+P74+P78+P80+P84+P86+P95+P99)</f>
-        <v>0</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B114,20),5),4)</f>
-        <v>-25</v>
-      </c>
-      <c r="D114" s="18" t="str">
-        <f aca="false">IF(C114&lt;=20,"Very Low",IF(C114&lt;=36,"Low",IF(C114&lt;=46,"A Little Low",IF(C114&lt;=53,"Average",IF(C114&lt;=63,"A Little High",IF(C114&lt;=79,"High","Very High"))))))</f>
-        <v>Very Low</v>
-      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="I114" s="2"/>
@@ -5106,21 +5589,6 @@
       <c r="O114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <f aca="false">SUM(P9+P12+P15+P23+P36+P41+P45+P52+P55+P58+P63+P66+P70+P73+P79+P82+P85+P90+P96+P101)</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B115,20),5),4)</f>
-        <v>-25</v>
-      </c>
-      <c r="D115" s="18" t="str">
-        <f aca="false">IF(C115&lt;=20,"Very Low",IF(C115&lt;=36,"Low",IF(C115&lt;=46,"A Little Low",IF(C115&lt;=53,"Average",IF(C115&lt;=63,"A Little High",IF(C115&lt;=79,"High","Very High"))))))</f>
-        <v>Very Low</v>
-      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="I115" s="2"/>
@@ -5128,21 +5596,6 @@
       <c r="O115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <f aca="false">SUM(P5+P14+P17+P21+P26+P29+P33+P38+P44+P49+P53+P56+P62+P71+P77+P83+P89+P92+P97+P103)</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B116,20),5),4)</f>
-        <v>-25</v>
-      </c>
-      <c r="D116" s="18" t="str">
-        <f aca="false">IF(C116&lt;=20,"Very Low",IF(C116&lt;=36,"Low",IF(C116&lt;=46,"A Little Low",IF(C116&lt;=53,"Average",IF(C116&lt;=63,"A Little High",IF(C116&lt;=79,"High","Very High"))))))</f>
-        <v>Very Low</v>
-      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="I116" s="2"/>
@@ -5150,21 +5603,6 @@
       <c r="O116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <f aca="false">SUM(P8+P11+P16+P19+P22+P24+P27+P32+P37+P40+P47+P50+P60+P64+P67+P75+P87+P93+P98+P102)</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B117,20),5),4)</f>
-        <v>-25</v>
-      </c>
-      <c r="D117" s="18" t="str">
-        <f aca="false">IF(C117&lt;=20,"Very Low",IF(C117&lt;=36,"Low",IF(C117&lt;=46,"A Little Low",IF(C117&lt;=53,"Average",IF(C117&lt;=63,"A Little High",IF(C117&lt;=79,"High","Very High"))))))</f>
-        <v>Very Low</v>
-      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="I117" s="2"/>
@@ -5179,28 +5617,18 @@
       <c r="O118" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="19"/>
+      <c r="A125" s="17"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A126" s="18"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2"/>
@@ -5646,40 +6074,109 @@
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
+    <row r="201" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="E201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
+      <c r="A202" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <f aca="false">SUM(AP7+AP13+AP18+AP30+AP34+AP39+AP43+AP48+AP51+AP54+AP65+AP68+AP72+AP76+AP81+AP88+AP91+AP94+AP100+AP104)</f>
+        <v>0</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B202,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D202" s="21" t="str">
+        <f aca="false">IF(C202&lt;=20,"Very Low",IF(C202&lt;=36,"Low",IF(C202&lt;=46,"A Little Low",IF(C202&lt;=53,"Average",IF(C202&lt;=63,"A Little High",IF(C202&lt;=79,"High","Very High"))))))</f>
+        <v>Very Low</v>
+      </c>
       <c r="E202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
+      <c r="A203" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <f aca="false">SUM(AP6+AP10+AP20+AP25+AP28+AP31+AP35+AP42+AP46+AP57+AP59+AP61+AP69+AP74+AP78+AP80+AP84+AP86+AP95+AP99)</f>
+        <v>0</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B203,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D203" s="21" t="str">
+        <f aca="false">IF(C203&lt;=20,"Very Low",IF(C203&lt;=36,"Low",IF(C203&lt;=46,"A Little Low",IF(C203&lt;=53,"Average",IF(C203&lt;=63,"A Little High",IF(C203&lt;=79,"High","Very High"))))))</f>
+        <v>Very Low</v>
+      </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
+      <c r="A204" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <f aca="false">SUM(AP9+AP12+AP15+AP23+AP36+AP41+AP45+AP52+AP55+AP58+AP63+AP66+AP70+AP73+AP79+AP82+AP85+AP90+AP96+AP101)</f>
+        <v>0</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B204,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D204" s="21" t="str">
+        <f aca="false">IF(C204&lt;=20,"Very Low",IF(C204&lt;=36,"Low",IF(C204&lt;=46,"A Little Low",IF(C204&lt;=53,"Average",IF(C204&lt;=63,"A Little High",IF(C204&lt;=79,"High","Very High"))))))</f>
+        <v>Very Low</v>
+      </c>
       <c r="E204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
+      <c r="A205" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <f aca="false">SUM(AP5+AP14+AP17+AP21+AP26+AP29+AP33+AP38+AP44+AP49+AP53+AP56+AP62+AP71+AP77+AP83+AP89+AP92+AP97+AP103)</f>
+        <v>0</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B205,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D205" s="21" t="str">
+        <f aca="false">IF(C205&lt;=20,"Very Low",IF(C205&lt;=36,"Low",IF(C205&lt;=46,"A Little Low",IF(C205&lt;=53,"Average",IF(C205&lt;=63,"A Little High",IF(C205&lt;=79,"High","Very High"))))))</f>
+        <v>Very Low</v>
+      </c>
       <c r="E205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
+      <c r="A206" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <f aca="false">SUM(AP8+AP11+AP16+AP19+AP22+AP24+AP27+AP32+AP37+AP40+AP47+AP50+AP60+AP64+AP67+AP75+AP87+AP93+AP98+AP102)</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <f aca="false">QUOTIENT(PRODUCT(_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT( B206,20),5),4)</f>
+        <v>-25</v>
+      </c>
+      <c r="D206" s="21" t="str">
+        <f aca="false">IF(C206&lt;=20,"Very Low",IF(C206&lt;=36,"Low",IF(C206&lt;=46,"A Little Low",IF(C206&lt;=53,"Average",IF(C206&lt;=63,"A Little High",IF(C206&lt;=79,"High","Very High"))))))</f>
+        <v>Very Low</v>
+      </c>
       <c r="E206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,28 +6293,26 @@
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A105:F105"/>
-    <mergeCell ref="H105:P105"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR!" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B5:B74 B76:B104" type="list">
-      <formula1>'IPIP 100 Item NEO5_20 Questionnaire'!$B$126:$E$126</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR!" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C5:F67 D68:F68 C69:F104" type="list">
-      <formula1>'IPIP 100 Item NEO5_20 Questionnaire'!$B$126:$E$126</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR!" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="C68" type="list">
-      <formula1>'IPIP 100 Item NEO5_20 Questionnaire'!$B$126:$E$126</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Only &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; are valid in this cell!" errorTitle="ERROR!" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot;, &quot;X&quot;, &quot;y&quot;, or &quot;Y&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B75" type="list">
-      <formula1>'IPIP 100 Item NEO5_20 Questionnaire'!$B$126:$E$126</formula1>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" error="Only &quot;x&quot; or &quot;X&quot; are valid in this cell!" errorTitle="ERROR!" operator="equal" prompt="If you enter a value in more than one column for a question, the score will use only the first one." promptTitle="Enter &quot;x&quot; or &quot;X&quot; in precisely one column per row." showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B5:F104" type="list">
+      <formula1>'IPIP 100 Item NEO5_20 Questionnaire'!$B$226:$C$226</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -5846,7 +6341,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
